--- a/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
+++ b/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4081D8ED-A67E-48C0-8D0C-093D97F12738}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AB5BD0-1C4C-4D0B-8257-56AF75C6EE05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Ambiente</t>
   </si>
@@ -45,7 +45,19 @@
     <t>0420194406533</t>
   </si>
   <si>
-    <t>11111003131</t>
+    <t>0420172008281</t>
+  </si>
+  <si>
+    <t>1220170301396</t>
+  </si>
+  <si>
+    <t>1120170200917</t>
+  </si>
+  <si>
+    <t>1220170301397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172008282  </t>
   </si>
 </sst>
 </file>
@@ -398,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD85637-653B-40C5-BF5F-AE1069CCABB3}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +450,39 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
+++ b/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AB5BD0-1C4C-4D0B-8257-56AF75C6EE05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263CBC72-5773-4A0F-ADD3-5874D3D80EBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Ambiente</t>
   </si>
@@ -45,19 +45,16 @@
     <t>0420194406533</t>
   </si>
   <si>
-    <t>0420172008281</t>
-  </si>
-  <si>
-    <t>1220170301396</t>
-  </si>
-  <si>
-    <t>1120170200917</t>
-  </si>
-  <si>
-    <t>1220170301397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0420172008282  </t>
+    <t xml:space="preserve">0420172008381   </t>
+  </si>
+  <si>
+    <t>0420172008380</t>
+  </si>
+  <si>
+    <t>1220170301405</t>
+  </si>
+  <si>
+    <t>1120170200926</t>
   </si>
 </sst>
 </file>
@@ -410,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD85637-653B-40C5-BF5F-AE1069CCABB3}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,14 +471,6 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
+++ b/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263CBC72-5773-4A0F-ADD3-5874D3D80EBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5E8E1D-AF8E-475F-8E96-A64C67766203}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Ambiente</t>
   </si>
@@ -39,12 +39,6 @@
     <t>PREPROD</t>
   </si>
   <si>
-    <t>1120194100385</t>
-  </si>
-  <si>
-    <t>0420194406533</t>
-  </si>
-  <si>
     <t xml:space="preserve">0420172008381   </t>
   </si>
   <si>
@@ -55,6 +49,15 @@
   </si>
   <si>
     <t>1120170200926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120194100403 </t>
+  </si>
+  <si>
+    <t>1220194200660</t>
+  </si>
+  <si>
+    <t>0420194406623</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD85637-653B-40C5-BF5F-AE1069CCABB3}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,15 +442,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +474,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
+++ b/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5E8E1D-AF8E-475F-8E96-A64C67766203}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD29458-B5F9-44BA-87E0-E92B6F51D317}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -39,25 +39,25 @@
     <t>PREPROD</t>
   </si>
   <si>
-    <t xml:space="preserve">0420172008381   </t>
-  </si>
-  <si>
-    <t>0420172008380</t>
-  </si>
-  <si>
-    <t>1220170301405</t>
-  </si>
-  <si>
-    <t>1120170200926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1120194100403 </t>
-  </si>
-  <si>
-    <t>1220194200660</t>
-  </si>
-  <si>
-    <t>0420194406623</t>
+    <t xml:space="preserve">1120194100404 </t>
+  </si>
+  <si>
+    <t>1220194200661</t>
+  </si>
+  <si>
+    <t>0420194406627</t>
+  </si>
+  <si>
+    <t>1120170200928</t>
+  </si>
+  <si>
+    <t>0420172008461</t>
+  </si>
+  <si>
+    <t>1220170301419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220170301418   </t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">

--- a/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
+++ b/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD29458-B5F9-44BA-87E0-E92B6F51D317}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D915BA1D-0F80-48A6-BAA4-270A914AE431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -39,15 +39,6 @@
     <t>PREPROD</t>
   </si>
   <si>
-    <t xml:space="preserve">1120194100404 </t>
-  </si>
-  <si>
-    <t>1220194200661</t>
-  </si>
-  <si>
-    <t>0420194406627</t>
-  </si>
-  <si>
     <t>1120170200928</t>
   </si>
   <si>
@@ -58,6 +49,15 @@
   </si>
   <si>
     <t xml:space="preserve">1220170301418   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420194406695 </t>
+  </si>
+  <si>
+    <t>1220194200662</t>
+  </si>
+  <si>
+    <t>1120194100405</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
+++ b/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D915BA1D-0F80-48A6-BAA4-270A914AE431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0543BA-801D-4B65-89F2-E826C0C07442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -51,13 +51,13 @@
     <t xml:space="preserve">1220170301418   </t>
   </si>
   <si>
-    <t xml:space="preserve">0420194406695 </t>
-  </si>
-  <si>
-    <t>1220194200662</t>
-  </si>
-  <si>
-    <t>1120194100405</t>
+    <t>0420194406718</t>
+  </si>
+  <si>
+    <t>0420194406719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220194200667  </t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
+++ b/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0543BA-801D-4B65-89F2-E826C0C07442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB4B033-DC3C-4073-90FE-D6D3EF7935CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -45,12 +45,6 @@
     <t>0420172008461</t>
   </si>
   <si>
-    <t>1220170301419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220170301418   </t>
-  </si>
-  <si>
     <t>0420194406718</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t xml:space="preserve">1220194200667  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172008479   </t>
+  </si>
+  <si>
+    <t>1120170200933</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
+++ b/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB4B033-DC3C-4073-90FE-D6D3EF7935CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A652CF-ACA8-4614-8C92-CFA3EDDE37D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>1120170200928</t>
   </si>
   <si>
-    <t>0420172008461</t>
-  </si>
-  <si>
     <t>0420194406718</t>
   </si>
   <si>
@@ -54,10 +51,13 @@
     <t xml:space="preserve">1220194200667  </t>
   </si>
   <si>
-    <t xml:space="preserve">0420172008479   </t>
-  </si>
-  <si>
-    <t>1120170200933</t>
+    <t xml:space="preserve">1120170200935 </t>
+  </si>
+  <si>
+    <t>1220170301428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172008481   </t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">

--- a/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
+++ b/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A652CF-ACA8-4614-8C92-CFA3EDDE37D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8C4473-8B8E-4F5B-A066-0D9C450DCB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -51,13 +51,13 @@
     <t xml:space="preserve">1220194200667  </t>
   </si>
   <si>
-    <t xml:space="preserve">1120170200935 </t>
-  </si>
-  <si>
-    <t>1220170301428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0420172008481   </t>
+    <t xml:space="preserve">0420172008486   </t>
+  </si>
+  <si>
+    <t>1220170301430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120170200937 </t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">

--- a/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
+++ b/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8C4473-8B8E-4F5B-A066-0D9C450DCB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873B01B5-41DF-4ACD-885F-B8A357A4FB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Ambiente</t>
   </si>
@@ -39,25 +39,34 @@
     <t>PREPROD</t>
   </si>
   <si>
-    <t>1120170200928</t>
-  </si>
-  <si>
-    <t>0420194406718</t>
-  </si>
-  <si>
-    <t>0420194406719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220194200667  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0420172008486   </t>
-  </si>
-  <si>
-    <t>1220170301430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1120170200937 </t>
+    <t xml:space="preserve">1120194100440   </t>
+  </si>
+  <si>
+    <t>1220194200683</t>
+  </si>
+  <si>
+    <t>0420194406812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172008629    </t>
+  </si>
+  <si>
+    <t>0420172008636</t>
+  </si>
+  <si>
+    <t>0420172008630</t>
+  </si>
+  <si>
+    <t>0420172008637</t>
+  </si>
+  <si>
+    <t>1220170301441</t>
+  </si>
+  <si>
+    <t>1120170200942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220170301442 </t>
   </si>
 </sst>
 </file>
@@ -410,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD85637-653B-40C5-BF5F-AE1069CCABB3}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -482,7 +491,31 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
+++ b/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873B01B5-41DF-4ACD-885F-B8A357A4FB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F5AD7-B2A9-4C7F-986C-8AC742CD5031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Ambiente</t>
   </si>
@@ -39,34 +39,37 @@
     <t>PREPROD</t>
   </si>
   <si>
-    <t xml:space="preserve">1120194100440   </t>
-  </si>
-  <si>
-    <t>1220194200683</t>
-  </si>
-  <si>
-    <t>0420194406812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0420172008629    </t>
-  </si>
-  <si>
-    <t>0420172008636</t>
-  </si>
-  <si>
-    <t>0420172008630</t>
-  </si>
-  <si>
-    <t>0420172008637</t>
-  </si>
-  <si>
-    <t>1220170301441</t>
-  </si>
-  <si>
-    <t>1120170200942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220170301442 </t>
+    <t xml:space="preserve">0420172010219    </t>
+  </si>
+  <si>
+    <t>0420172010221</t>
+  </si>
+  <si>
+    <t>0420172010222</t>
+  </si>
+  <si>
+    <t>1220170301466</t>
+  </si>
+  <si>
+    <t>1120170200969</t>
+  </si>
+  <si>
+    <t>1220170301467</t>
+  </si>
+  <si>
+    <t>0420172010228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420194406895   </t>
+  </si>
+  <si>
+    <t>0420194406896</t>
+  </si>
+  <si>
+    <t>1120170200973</t>
+  </si>
+  <si>
+    <t>1220194200691</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD85637-653B-40C5-BF5F-AE1069CCABB3}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,15 +462,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -499,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +518,15 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
+++ b/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F5AD7-B2A9-4C7F-986C-8AC742CD5031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ABA67C-2C65-481A-B990-B6CD77DF88D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -60,16 +60,16 @@
     <t>0420172010228</t>
   </si>
   <si>
-    <t xml:space="preserve">0420194406895   </t>
-  </si>
-  <si>
-    <t>0420194406896</t>
-  </si>
-  <si>
-    <t>1120170200973</t>
-  </si>
-  <si>
-    <t>1220194200691</t>
+    <t xml:space="preserve">0420194407302   </t>
+  </si>
+  <si>
+    <t>0420194407303</t>
+  </si>
+  <si>
+    <t>1220194200722</t>
+  </si>
+  <si>
+    <t>1120194100457</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
+++ b/SuraClaims/Validacion_GeneracionSiniestro_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ABA67C-2C65-481A-B990-B6CD77DF88D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED284A3-4FD0-4ECA-91B6-E9B298677B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Ambiente</t>
   </si>
@@ -39,27 +39,6 @@
     <t>PREPROD</t>
   </si>
   <si>
-    <t xml:space="preserve">0420172010219    </t>
-  </si>
-  <si>
-    <t>0420172010221</t>
-  </si>
-  <si>
-    <t>0420172010222</t>
-  </si>
-  <si>
-    <t>1220170301466</t>
-  </si>
-  <si>
-    <t>1120170200969</t>
-  </si>
-  <si>
-    <t>1220170301467</t>
-  </si>
-  <si>
-    <t>0420172010228</t>
-  </si>
-  <si>
     <t xml:space="preserve">0420194407302   </t>
   </si>
   <si>
@@ -70,6 +49,45 @@
   </si>
   <si>
     <t>1120194100457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172010449    </t>
+  </si>
+  <si>
+    <t>0420172010457</t>
+  </si>
+  <si>
+    <t>0420172010451</t>
+  </si>
+  <si>
+    <t>0420172010448</t>
+  </si>
+  <si>
+    <t>0420172010450</t>
+  </si>
+  <si>
+    <t>0420172010452</t>
+  </si>
+  <si>
+    <t>0420172010453</t>
+  </si>
+  <si>
+    <t>0420172010454</t>
+  </si>
+  <si>
+    <t>0420172010455</t>
+  </si>
+  <si>
+    <t>0420172010458</t>
+  </si>
+  <si>
+    <t>1120170200983</t>
+  </si>
+  <si>
+    <t>1220170301481</t>
+  </si>
+  <si>
+    <t>1220170301482</t>
   </si>
 </sst>
 </file>
@@ -422,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD85637-653B-40C5-BF5F-AE1069CCABB3}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +544,55 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
